--- a/data/trans_bre/DCD-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Edad-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,28</t>
+          <t>1,52; 6,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,92</t>
+          <t>1,27; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 20,86</t>
+          <t>8,8; 20,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,37; 1248,06</t>
+          <t>48,57; 1042,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,82; —</t>
+          <t>51,09; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>176,18; 3697,82</t>
+          <t>181,53; 3619,26</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,7</t>
+          <t>1,49; 6,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,6</t>
+          <t>1,19; 6,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,19</t>
+          <t>5,38; 13,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 352,05</t>
+          <t>36,07; 345,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,93; 346,38</t>
+          <t>22,48; 296,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,97; 455,48</t>
+          <t>68,73; 449,7</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,47</t>
+          <t>4,55; 10,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,85</t>
+          <t>2,41; 7,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,31</t>
+          <t>4,8; 12,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,7; 318,05</t>
+          <t>78,56; 327,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,77; 279,43</t>
+          <t>41,69; 291,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,67; 210,5</t>
+          <t>48,53; 214,69</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,82</t>
+          <t>4,17; 11,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,89</t>
+          <t>2,92; 9,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,11</t>
+          <t>7,58; 15,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,24; 226,33</t>
+          <t>49,92; 230,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,08; 192,09</t>
+          <t>33,21; 191,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,71; 151,11</t>
+          <t>47,32; 146,91</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,47</t>
+          <t>8,05; 17,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,53</t>
+          <t>1,23; 10,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,7</t>
+          <t>6,85; 15,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,65; 262,22</t>
+          <t>72,83; 264,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 106,57</t>
+          <t>6,44; 110,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 89,04</t>
+          <t>29,23; 89,46</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,96</t>
+          <t>11,65; 21,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,5</t>
+          <t>4,74; 13,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 19,99</t>
+          <t>2,81; 20,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,95; 141,12</t>
+          <t>59,28; 147,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,53; 112,48</t>
+          <t>27,78; 112,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 88,96</t>
+          <t>14,76; 91,31</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>8,17; 11,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,78; 7,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,54</t>
+          <t>9,81; 14,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
+          <t>108,12; 182,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,34; 125,05</t>
+          <t>64,34; 127,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>72,23; 119,89</t>
+          <t>71,01; 116,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,04</t>
+          <t>1,4; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,21</t>
+          <t>1,26; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,57; 1042,57</t>
+          <t>28,94; 1061,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,09; —</t>
+          <t>51,99; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,61</t>
+          <t>1,62; 6,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,37</t>
+          <t>0,91; 6,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,07; 345,54</t>
+          <t>37,45; 331,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 296,14</t>
+          <t>18,99; 340,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,35</t>
+          <t>4,63; 10,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,86</t>
+          <t>2,61; 7,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,56; 327,41</t>
+          <t>78,81; 316,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,69; 291,49</t>
+          <t>48,99; 274,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,68</t>
+          <t>4,17; 11,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 9,63</t>
+          <t>3,23; 9,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,92; 230,48</t>
+          <t>47,6; 213,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,21; 191,08</t>
+          <t>39,09; 184,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,05; 17,78</t>
+          <t>7,56; 17,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,9</t>
+          <t>0,83; 10,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,83; 264,64</t>
+          <t>66,29; 248,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 110,29</t>
+          <t>5,33; 101,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,65; 21,12</t>
+          <t>11,15; 20,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,27</t>
+          <t>4,74; 13,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,28; 147,39</t>
+          <t>56,09; 144,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,78; 112,28</t>
+          <t>29,17; 109,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,19</t>
+          <t>8,08; 11,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,86</t>
+          <t>4,8; 7,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>108,12; 182,64</t>
+          <t>109,37; 182,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,34; 127,45</t>
+          <t>64,62; 127,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/DCD-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,24</t>
+          <t>1,48; 6,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,96</t>
+          <t>1,44; 4,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 20,68</t>
+          <t>8,73; 20,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,94; 1061,63</t>
+          <t>49,37; 1248,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,99; —</t>
+          <t>72,82; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>181,53; 3619,26</t>
+          <t>176,18; 3697,82</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,57</t>
+          <t>1,58; 6,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,36</t>
+          <t>1,1; 6,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,83</t>
+          <t>5,11; 14,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,45; 331,41</t>
+          <t>34,81; 352,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 340,44</t>
+          <t>21,93; 346,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,73; 449,7</t>
+          <t>65,97; 455,48</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,28</t>
+          <t>4,32; 10,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,86</t>
+          <t>2,3; 7,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,33</t>
+          <t>4,83; 12,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,81; 316,11</t>
+          <t>72,7; 318,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,99; 274,03</t>
+          <t>42,77; 279,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,53; 214,69</t>
+          <t>47,67; 210,5</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,22</t>
+          <t>4,2; 11,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,8</t>
+          <t>3,11; 9,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,83</t>
+          <t>7,27; 16,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,6; 213,49</t>
+          <t>47,24; 226,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,09; 184,61</t>
+          <t>37,08; 192,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,32; 146,91</t>
+          <t>46,71; 151,11</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 17,6</t>
+          <t>7,64; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 10,13</t>
+          <t>1,34; 10,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,84</t>
+          <t>7,5; 15,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,29; 248,87</t>
+          <t>69,65; 262,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 101,44</t>
+          <t>8,25; 106,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,23; 89,46</t>
+          <t>33,3; 89,04</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 20,88</t>
+          <t>11,31; 20,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,39</t>
+          <t>4,87; 13,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 20,21</t>
+          <t>2,22; 19,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,09; 144,23</t>
+          <t>54,95; 141,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,17; 109,65</t>
+          <t>30,53; 112,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,76; 91,31</t>
+          <t>12,03; 88,96</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,11</t>
+          <t>8,13; 11,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,85</t>
+          <t>4,82; 7,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,81; 14,45</t>
+          <t>9,95; 14,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>109,37; 182,91</t>
+          <t>111,63; 186,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,62; 127,72</t>
+          <t>64,34; 125,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>71,01; 116,5</t>
+          <t>72,23; 119,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,13 +590,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>14,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,06</t>
+          <t>296,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>621,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>296,94%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>621,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>790,19%</t>
+          <t>791,83%</t>
         </is>
       </c>
     </row>
@@ -668,49 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 6,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,28</t>
+          <t>1,44; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,92</t>
+          <t>8,76; 21,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 20,86</t>
+          <t>49,37; 1248,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,82; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,37; 1248,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>72,82; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>176,18; 3697,82</t>
+          <t>172,87; 3667,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>148,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>148,52%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>119,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>199,78%</t>
+          <t>162,51%</t>
         </is>
       </c>
     </row>
@@ -768,49 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 6,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,7</t>
+          <t>1,1; 6,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,6</t>
+          <t>2,17; 12,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,19</t>
+          <t>34,81; 352,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,93; 346,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 352,05</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>21,93; 346,38</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>65,97; 455,48</t>
+          <t>32,52; 418,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>174,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>174,89%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>134,05%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>119,15%</t>
+          <t>107,95%</t>
         </is>
       </c>
     </row>
@@ -868,49 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,32; 10,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,47</t>
+          <t>2,3; 7,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,85</t>
+          <t>3,29; 11,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,31</t>
+          <t>72,7; 318,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,77; 279,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,7; 318,05</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>42,77; 279,43</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>47,67; 210,5</t>
+          <t>33,77; 190,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,44</t>
+          <t>118,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,63%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>99,33%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>87,22%</t>
+          <t>134,09%</t>
         </is>
       </c>
     </row>
@@ -968,49 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,2; 11,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,82</t>
+          <t>3,11; 9,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,89</t>
+          <t>8,14; 21,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,11</t>
+          <t>47,24; 226,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,08; 192,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,24; 226,33</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>37,08; 192,09</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>46,71; 151,11</t>
+          <t>54,62; 432,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,61</t>
+          <t>146,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>146,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>46,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>57,7%</t>
+          <t>57,0%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,64; 17,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,47</t>
+          <t>1,34; 10,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,53</t>
+          <t>7,41; 15,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,7</t>
+          <t>69,65; 262,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,25; 106,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,65; 262,22</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 106,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>33,3; 89,04</t>
+          <t>33,68; 88,89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,23</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>65,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>60,75%</t>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 20,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,96</t>
+          <t>2,2; 12,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,5</t>
+          <t>-12,28; 15,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 19,99</t>
+          <t>34,04; 171,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,68; 174,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,95; 141,12</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>30,53; 112,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>12,03; 88,96</t>
+          <t>-56,28; 88,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>20,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>144,79%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>94,23%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>94,38%</t>
+          <t>68,23%</t>
         </is>
       </c>
     </row>
@@ -1268,63 +1122,134 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,86; 25,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>1,91; 15,62</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15,28; 25,41</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>43,49; 161,68</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 94,41</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46,55; 94,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,65</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,99</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>144,79%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>94,23%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>97,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>8,13; 11,14</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,82; 7,72</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 14,54</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7,83; 15,05</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>111,63; 186,57</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>64,34; 125,05</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>72,23; 119,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64,12; 147,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/DCD-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,28</t>
+          <t>1,54; 6,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,92</t>
+          <t>1,27; 5,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 21,22</t>
+          <t>8,69; 21,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,37; 1248,06</t>
+          <t>44,64; 1042,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,82; —</t>
+          <t>67,7; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>172,87; 3667,92</t>
+          <t>157,84; 3336,5</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,7</t>
+          <t>1,68; 6,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,6</t>
+          <t>0,76; 6,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 12,58</t>
+          <t>1,63; 12,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 352,05</t>
+          <t>37,66; 372,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,93; 346,38</t>
+          <t>14,84; 329,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,52; 418,24</t>
+          <t>28,34; 375,88</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,47</t>
+          <t>4,62; 10,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,85</t>
+          <t>2,49; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,63</t>
+          <t>3,86; 11,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,7; 318,05</t>
+          <t>80,6; 315,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,77; 279,43</t>
+          <t>48,01; 294,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,77; 190,92</t>
+          <t>45,67; 195,06</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,82</t>
+          <t>4,35; 11,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,89</t>
+          <t>2,81; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 21,67</t>
+          <t>8,02; 21,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,24; 226,33</t>
+          <t>52,44; 232,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,08; 192,09</t>
+          <t>32,02; 186,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,62; 432,81</t>
+          <t>57,29; 476,28</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,47</t>
+          <t>7,99; 17,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,53</t>
+          <t>0,83; 10,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,64</t>
+          <t>7,7; 16,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,65; 262,22</t>
+          <t>71,81; 265,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 106,57</t>
+          <t>4,56; 105,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 88,89</t>
+          <t>34,52; 92,35</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 20,23</t>
+          <t>6,28; 19,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 12,57</t>
+          <t>2,92; 12,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 15,77</t>
+          <t>-10,15; 16,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 171,45</t>
+          <t>32,18; 154,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,68; 174,21</t>
+          <t>22,99; 170,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,28; 88,99</t>
+          <t>-51,32; 94,47</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,86; 25,74</t>
+          <t>10,92; 25,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 15,62</t>
+          <t>2,4; 16,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,28; 25,41</t>
+          <t>14,97; 26,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,49; 161,68</t>
+          <t>43,29; 159,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 94,41</t>
+          <t>10,0; 99,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,55; 94,79</t>
+          <t>44,0; 96,86</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>8,14; 11,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,87; 7,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,05</t>
+          <t>7,5; 14,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
+          <t>111,66; 184,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,34; 125,05</t>
+          <t>67,08; 129,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,12; 147,46</t>
+          <t>62,93; 144,25</t>
         </is>
       </c>
     </row>
